--- a/tabular/extension/srlv/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv/srlv-refseqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/srlv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/retrovirus/Lentivirus-GLUE-SRLV/tabular/extension/srlv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04989D82-2E68-7B49-B08F-9B88B7175A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD75927-45EA-0D4D-9B09-2F1CC78BC248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="4120" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="203">
   <si>
     <t>Accession</t>
   </si>
@@ -606,6 +606,39 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A18</t>
   </si>
 </sst>
 </file>
@@ -1115,14 +1148,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C23911-5DD3-264B-8B55-BABF418693B7}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H62" sqref="A1:M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1168,7 +1202,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>54</v>
@@ -1177,134 +1211,134 @@
         <v>189</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
+      <c r="H2" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J2" s="4">
-        <v>9189</v>
+        <v>9136</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <v>1999</v>
+        <v>2020</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
-        <v>4</v>
+      <c r="H3" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="J3" s="4">
-        <v>9023</v>
+        <v>9193</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="J4" s="4">
-        <v>9186</v>
+        <v>9189</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
+      <c r="F5" s="4">
+        <v>1953</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4">
-        <v>8418</v>
+        <v>9203</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
@@ -1316,7 +1350,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>54</v>
@@ -1325,171 +1359,171 @@
         <v>189</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>496</v>
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="4">
-        <v>9136</v>
+        <v>9256</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
+      <c r="F7" s="4">
+        <v>1976</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="J7" s="4">
-        <v>8437</v>
+        <v>9256</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>2009</v>
+        <v>1952</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="J8" s="4">
-        <v>9065</v>
+        <v>9202</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>2004</v>
+        <v>1949</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="J9" s="4">
-        <v>9090</v>
+        <v>9225</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4">
-        <v>4</v>
-      </c>
-      <c r="I10" s="4">
-        <v>697</v>
+      <c r="H10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="J10" s="4">
-        <v>9175</v>
+        <v>9312</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
@@ -1501,7 +1535,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>54</v>
@@ -1510,23 +1544,23 @@
         <v>189</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <v>2004</v>
+        <v>1984</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>179</v>
+        <v>44</v>
+      </c>
+      <c r="J11" s="4">
+        <v>9203</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
@@ -1538,79 +1572,81 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <v>1993</v>
+        <v>2017</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J12" s="4">
-        <v>9138</v>
+        <v>9164</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J13" s="4">
-        <v>9464</v>
+        <v>9206</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>54</v>
@@ -1619,35 +1655,35 @@
         <v>189</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J14" s="4">
-        <v>9464</v>
+        <v>9185</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>54</v>
@@ -1656,183 +1692,183 @@
         <v>189</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>75</v>
+        <v>200</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1150</v>
       </c>
       <c r="J15" s="4">
-        <v>9464</v>
+        <v>9195</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J16" s="4">
-        <v>9172</v>
+        <v>9206</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="J17" s="4">
-        <v>9163</v>
+        <v>9192</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>45</v>
+      <c r="F18" s="4">
+        <v>2006</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="J18" s="4">
-        <v>9118</v>
+        <v>9171</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>45</v>
+      <c r="F19" s="4">
+        <v>2006</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J19" s="4">
-        <v>9171</v>
+        <v>9166</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
+      <c r="A20" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>54</v>
@@ -1841,35 +1877,35 @@
         <v>189</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
+      <c r="H20" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="J20" s="4">
-        <v>9136</v>
+        <v>9202</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>54</v>
@@ -1882,19 +1918,19 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="4">
-        <v>3</v>
+      <c r="H21" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="J21" s="4">
-        <v>9206</v>
+        <v>9194</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
@@ -1906,7 +1942,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>54</v>
@@ -1919,19 +1955,19 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="4">
-        <v>3</v>
+      <c r="H22" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J22" s="4">
-        <v>9185</v>
+        <v>9207</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
@@ -1943,7 +1979,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>54</v>
@@ -1952,35 +1988,35 @@
         <v>189</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
-        <v>1953</v>
+        <v>2007</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="4">
-        <v>1</v>
+      <c r="H23" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J23" s="4">
-        <v>9203</v>
+        <v>9192</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>54</v>
@@ -1989,35 +2025,35 @@
         <v>189</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
-        <v>1976</v>
+        <v>2006</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
+      <c r="H24" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="J24" s="4">
-        <v>9256</v>
+        <v>9193</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>54</v>
@@ -2026,35 +2062,35 @@
         <v>189</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
-        <v>1976</v>
+        <v>2017</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="4">
-        <v>1</v>
+      <c r="H25" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="J25" s="4">
-        <v>9256</v>
+        <v>9166</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -2063,35 +2099,35 @@
         <v>189</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
-        <v>1952</v>
+        <v>2006</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="4">
-        <v>1</v>
+      <c r="H26" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="J26" s="4">
-        <v>9202</v>
+        <v>9185</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>54</v>
@@ -2100,35 +2136,35 @@
         <v>189</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
-        <v>1949</v>
+        <v>2005</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="4">
-        <v>1</v>
+      <c r="H27" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="J27" s="4">
-        <v>9225</v>
+        <v>9200</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>54</v>
@@ -2137,405 +2173,405 @@
         <v>189</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>45</v>
+      <c r="F28" s="4">
+        <v>2006</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="J28" s="4">
-        <v>9145</v>
+        <v>9202</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="4">
-        <v>8</v>
+      <c r="H29" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="J29" s="4">
-        <v>9307</v>
+        <v>9191</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="4">
-        <v>8</v>
+      <c r="H30" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="J30" s="4">
-        <v>9231</v>
+        <v>9199</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="4">
-        <v>8</v>
+      <c r="H31" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="J31" s="4">
-        <v>9206</v>
+        <v>9189</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="4">
-        <v>8</v>
+      <c r="H32" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="J32" s="4">
-        <v>9486</v>
+        <v>9191</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="4">
-        <v>8</v>
+      <c r="H33" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="J33" s="4">
-        <v>9138</v>
+        <v>9201</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="4">
-        <v>8</v>
+      <c r="H34" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="J34" s="4">
-        <v>9258</v>
+        <v>9206</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="4">
-        <v>1</v>
+      <c r="H35" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="J35" s="4">
-        <v>9312</v>
+        <v>9203</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>45</v>
+      <c r="F36" s="4">
+        <v>2006</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="J36" s="4">
-        <v>9168</v>
+        <v>9215</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>45</v>
+      <c r="F37" s="4">
+        <v>2006</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="J37" s="4">
-        <v>9270</v>
+        <v>9172</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>45</v>
+      <c r="F38" s="4">
+        <v>2006</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="J38" s="4">
-        <v>9121</v>
+        <v>9204</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>51</v>
@@ -2544,23 +2580,23 @@
         <v>189</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>45</v>
+      <c r="F39" s="4">
+        <v>1999</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="J39" s="4">
-        <v>9136</v>
+        <v>9023</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
@@ -2572,32 +2608,32 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>45</v>
+      <c r="F40" s="4">
+        <v>2005</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>170</v>
+        <v>193</v>
+      </c>
+      <c r="I40" s="4">
+        <v>697</v>
       </c>
       <c r="J40" s="4">
-        <v>9119</v>
+        <v>9175</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
@@ -2609,7 +2645,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>51</v>
@@ -2618,60 +2654,60 @@
         <v>189</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="J41" s="4">
-        <v>9131</v>
+        <v>9464</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="4">
-        <v>8</v>
+      <c r="H42" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J42" s="4">
-        <v>9266</v>
+        <v>9464</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="s">
@@ -2683,32 +2719,32 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="4">
-        <v>8</v>
+      <c r="H43" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J43" s="4">
-        <v>9257</v>
+        <v>9464</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
@@ -2720,7 +2756,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>51</v>
@@ -2733,19 +2769,19 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="4">
-        <v>8</v>
+      <c r="H44" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J44" s="4">
-        <v>9276</v>
+        <v>9307</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
@@ -2757,7 +2793,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>51</v>
@@ -2770,19 +2806,19 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="4">
-        <v>8</v>
+      <c r="H45" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J45" s="4">
-        <v>9265</v>
+        <v>9231</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
@@ -2794,10 +2830,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>189</v>
@@ -2807,19 +2843,19 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="4">
-        <v>18</v>
+      <c r="H46" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="J46" s="4">
-        <v>9164</v>
+        <v>9206</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
@@ -2831,10 +2867,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>189</v>
@@ -2844,19 +2880,19 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="4">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="J47" s="4">
-        <v>8908</v>
+        <v>9486</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
@@ -2868,7 +2904,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>51</v>
@@ -2880,20 +2916,20 @@
         <v>13</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>45</v>
+      <c r="F48" s="4">
+        <v>2008</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J48" s="4">
-        <v>9158</v>
+        <v>9138</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
@@ -2905,7 +2941,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>51</v>
@@ -2918,19 +2954,19 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="J49" s="4">
-        <v>9135</v>
+        <v>9258</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
@@ -2942,7 +2978,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>51</v>
@@ -2960,14 +2996,14 @@
       <c r="G50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="4">
-        <v>8</v>
+      <c r="H50" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" s="4">
-        <v>9316</v>
+        <v>9266</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
@@ -2979,16 +3015,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4">
@@ -2997,26 +3033,26 @@
       <c r="G51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="4">
-        <v>3</v>
-      </c>
-      <c r="I51" s="4">
-        <v>1150</v>
+      <c r="H51" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="J51" s="4">
-        <v>9195</v>
+        <v>9257</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>51</v>
@@ -3029,19 +3065,19 @@
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="J52" s="4">
-        <v>6378</v>
+        <v>9276</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
@@ -3053,180 +3089,180 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="4">
-        <v>3</v>
+      <c r="H53" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="J53" s="4">
-        <v>9206</v>
+        <v>9265</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="4">
-        <v>3</v>
+      <c r="H54" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="J54" s="4">
-        <v>9192</v>
+        <v>9316</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J55" s="4">
-        <v>9171</v>
+        <v>9186</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="J56" s="4">
-        <v>9166</v>
+        <v>9065</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>109</v>
+      <c r="A57" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="J57" s="4">
-        <v>9202</v>
+        <v>9090</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
@@ -3238,365 +3274,363 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="J58" s="4">
-        <v>9194</v>
+        <v>9138</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="J59" s="4">
-        <v>9207</v>
+        <v>9172</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="J60" s="4">
-        <v>9192</v>
+        <v>9163</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="4">
-        <v>2006</v>
+      <c r="F61" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="J61" s="4">
-        <v>9193</v>
+        <v>9118</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E62" s="4"/>
-      <c r="F62" s="4">
-        <v>2017</v>
+      <c r="F62" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J62" s="4">
-        <v>9166</v>
+        <v>9171</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="4">
-        <v>2006</v>
+      <c r="F63" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="J63" s="4">
-        <v>9185</v>
+        <v>9168</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="4">
-        <v>2005</v>
+      <c r="F64" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="J64" s="4">
-        <v>9200</v>
+        <v>9270</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="4">
-        <v>2006</v>
+      <c r="F65" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="J65" s="4">
-        <v>9202</v>
+        <v>9121</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="4">
-        <v>2007</v>
+      <c r="F66" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="J66" s="4">
-        <v>9191</v>
+        <v>9136</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="J67" s="4">
-        <v>9199</v>
+        <v>9131</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
@@ -3608,155 +3642,155 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="4">
-        <v>2003</v>
+      <c r="F68" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="J68" s="4">
-        <v>9189</v>
+        <v>9158</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="J69" s="4">
-        <v>9191</v>
+        <v>9135</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="J70" s="4">
-        <v>9201</v>
+        <v>6378</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="4">
-        <v>2006</v>
+      <c r="F71" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="J71" s="4">
-        <v>9206</v>
+        <v>9119</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>54</v>
@@ -3765,35 +3799,35 @@
         <v>189</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="4">
-        <v>2007</v>
+      <c r="F72" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="J72" s="4">
-        <v>9203</v>
+        <v>9145</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>54</v>
@@ -3802,35 +3836,35 @@
         <v>189</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="4">
-        <v>3</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>97</v>
+        <v>27</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I73" s="4">
+        <v>496</v>
       </c>
       <c r="J73" s="4">
-        <v>9215</v>
+        <v>9136</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>54</v>
@@ -3839,35 +3873,35 @@
         <v>189</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="J74" s="4">
-        <v>9172</v>
+        <v>8908</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>54</v>
@@ -3876,97 +3910,97 @@
         <v>189</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J75" s="4">
-        <v>9204</v>
+        <v>180</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="4">
-        <v>2020</v>
+      <c r="F76" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="4">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="J76" s="4">
-        <v>9193</v>
+        <v>8418</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="4">
-        <v>1984</v>
+      <c r="F77" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="4">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="J77" s="4">
-        <v>9203</v>
+        <v>8437</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4" t="s">
@@ -3978,7 +4012,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
-    <sortCondition ref="A2:A77"/>
+    <sortCondition ref="H2:H77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tabular/extension/srlv/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv/srlv-refseqs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/retrovirus/Lentivirus-GLUE-SRLV/tabular/extension/srlv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD75927-45EA-0D4D-9B09-2F1CC78BC248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89BC864-DBE1-8D47-BA31-6FFABA7C0DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27960" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="OUT" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="OUT" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="198">
   <si>
     <t>Accession</t>
   </si>
@@ -578,12 +579,6 @@
     <t>Fonni</t>
   </si>
   <si>
-    <t>GQ381130</t>
-  </si>
-  <si>
-    <t>Seui</t>
-  </si>
-  <si>
     <t>HM210570</t>
   </si>
   <si>
@@ -605,9 +600,6 @@
     <t>Subgenus</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -617,13 +609,7 @@
     <t>B1</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>B2</t>
-  </si>
-  <si>
-    <t>E2</t>
   </si>
   <si>
     <t>B3</t>
@@ -1146,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C23911-5DD3-264B-8B55-BABF418693B7}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H62" sqref="A1:M77"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,13 +1153,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1191,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
@@ -1208,7 +1194,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>33</v>
@@ -1221,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>34</v>
@@ -1245,7 +1231,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>62</v>
@@ -1258,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>125</v>
@@ -1282,7 +1268,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
@@ -1295,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>48</v>
@@ -1319,7 +1305,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
@@ -1332,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>36</v>
@@ -1356,7 +1342,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
@@ -1369,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>22</v>
@@ -1393,7 +1379,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -1406,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>22</v>
@@ -1430,7 +1416,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>40</v>
@@ -1443,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>36</v>
@@ -1467,7 +1453,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>40</v>
@@ -1480,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>36</v>
@@ -1504,7 +1490,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -1517,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>79</v>
@@ -1541,7 +1527,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>43</v>
@@ -1554,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>44</v>
@@ -1578,7 +1564,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -1591,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>152</v>
@@ -1615,7 +1601,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
@@ -1628,7 +1614,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>64</v>
@@ -1652,7 +1638,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -1665,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>66</v>
@@ -1689,7 +1675,7 @@
         <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
@@ -1702,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I15" s="4">
         <v>1150</v>
@@ -1726,7 +1712,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
@@ -1739,7 +1725,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>64</v>
@@ -1763,7 +1749,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
@@ -1776,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>127</v>
@@ -1800,7 +1786,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
@@ -1813,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>142</v>
@@ -1837,7 +1823,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
@@ -1850,7 +1836,7 @@
         <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>148</v>
@@ -1874,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -1887,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>110</v>
@@ -1911,7 +1897,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -1924,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>121</v>
@@ -1948,7 +1934,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
@@ -1961,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>99</v>
@@ -1985,7 +1971,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>14</v>
@@ -1998,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>129</v>
@@ -2022,7 +2008,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>14</v>
@@ -2035,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>123</v>
@@ -2059,7 +2045,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>14</v>
@@ -2072,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>150</v>
@@ -2096,7 +2082,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>14</v>
@@ -2109,7 +2095,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>136</v>
@@ -2133,7 +2119,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>14</v>
@@ -2146,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>116</v>
@@ -2170,7 +2156,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
@@ -2183,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>112</v>
@@ -2207,7 +2193,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>14</v>
@@ -2220,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>131</v>
@@ -2244,7 +2230,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>14</v>
@@ -2257,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>118</v>
@@ -2281,7 +2267,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>14</v>
@@ -2294,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>66</v>
@@ -2318,7 +2304,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>14</v>
@@ -2331,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>133</v>
@@ -2355,7 +2341,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>14</v>
@@ -2368,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>114</v>
@@ -2392,7 +2378,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>14</v>
@@ -2405,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>104</v>
@@ -2429,7 +2415,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>14</v>
@@ -2442,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>108</v>
@@ -2466,7 +2452,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>14</v>
@@ -2479,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>97</v>
@@ -2503,7 +2489,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>14</v>
@@ -2516,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>138</v>
@@ -2540,7 +2526,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>14</v>
@@ -2553,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>106</v>
@@ -2577,7 +2563,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>17</v>
@@ -2590,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>18</v>
@@ -2614,7 +2600,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>46</v>
@@ -2627,7 +2613,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I40" s="4">
         <v>697</v>
@@ -2651,7 +2637,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>17</v>
@@ -2664,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>71</v>
@@ -2688,7 +2674,7 @@
         <v>54</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>17</v>
@@ -2701,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>73</v>
@@ -2725,7 +2711,7 @@
         <v>54</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>17</v>
@@ -2738,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>75</v>
@@ -2762,7 +2748,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
@@ -2775,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>81</v>
@@ -2799,7 +2785,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>13</v>
@@ -2812,7 +2798,7 @@
         <v>12</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>95</v>
@@ -2836,7 +2822,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
@@ -2849,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>101</v>
@@ -2873,7 +2859,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
@@ -2886,7 +2872,7 @@
         <v>12</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>69</v>
@@ -2910,7 +2896,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
@@ -2923,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>160</v>
@@ -2947,7 +2933,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>13</v>
@@ -2960,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>91</v>
@@ -2984,7 +2970,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>13</v>
@@ -2997,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>87</v>
@@ -3021,7 +3007,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>13</v>
@@ -3034,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>93</v>
@@ -3058,7 +3044,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>13</v>
@@ -3071,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>83</v>
@@ -3095,7 +3081,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>13</v>
@@ -3108,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>89</v>
@@ -3132,7 +3118,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>13</v>
@@ -3145,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>77</v>
@@ -3169,7 +3155,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>62</v>
@@ -3182,10 +3168,10 @@
         <v>27</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J55" s="4">
         <v>9186</v>
@@ -3206,7 +3192,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>62</v>
@@ -3219,7 +3205,7 @@
         <v>27</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>60</v>
@@ -3237,13 +3223,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -3256,10 +3242,10 @@
         <v>27</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J57" s="4">
         <v>9090</v>
@@ -3280,7 +3266,7 @@
         <v>51</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>62</v>
@@ -3293,7 +3279,7 @@
         <v>27</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>162</v>
@@ -3315,7 +3301,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>62</v>
@@ -3328,7 +3314,7 @@
         <v>27</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>140</v>
@@ -3352,7 +3338,7 @@
         <v>51</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>62</v>
@@ -3365,7 +3351,7 @@
         <v>27</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>154</v>
@@ -3389,7 +3375,7 @@
         <v>51</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>62</v>
@@ -3402,7 +3388,7 @@
         <v>27</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>172</v>
@@ -3426,7 +3412,7 @@
         <v>51</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>62</v>
@@ -3439,7 +3425,7 @@
         <v>27</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>144</v>
@@ -3463,7 +3449,7 @@
         <v>51</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>13</v>
@@ -3476,7 +3462,7 @@
         <v>27</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>146</v>
@@ -3500,7 +3486,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>13</v>
@@ -3513,7 +3499,7 @@
         <v>27</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>85</v>
@@ -3537,7 +3523,7 @@
         <v>51</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>13</v>
@@ -3550,7 +3536,7 @@
         <v>27</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>168</v>
@@ -3574,7 +3560,7 @@
         <v>51</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>13</v>
@@ -3587,7 +3573,7 @@
         <v>27</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>164</v>
@@ -3611,7 +3597,7 @@
         <v>51</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>52</v>
@@ -3624,7 +3610,7 @@
         <v>27</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>53</v>
@@ -3648,7 +3634,7 @@
         <v>51</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>13</v>
@@ -3661,7 +3647,7 @@
         <v>27</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>156</v>
@@ -3685,7 +3671,7 @@
         <v>51</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>13</v>
@@ -3698,7 +3684,7 @@
         <v>27</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>166</v>
@@ -3716,32 +3702,32 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="4">
-        <v>2015</v>
+      <c r="F70" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J70" s="4">
-        <v>6378</v>
+        <v>9119</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4" t="s">
@@ -3753,13 +3739,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>13</v>
@@ -3772,13 +3758,13 @@
         <v>27</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J71" s="4">
-        <v>9119</v>
+        <v>9145</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4" t="s">
@@ -3790,32 +3776,32 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="4" t="s">
-        <v>45</v>
+      <c r="F72" s="4">
+        <v>2004</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>158</v>
+        <v>192</v>
+      </c>
+      <c r="I72" s="4">
+        <v>496</v>
       </c>
       <c r="J72" s="4">
-        <v>9145</v>
+        <v>9136</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4" t="s">
@@ -3827,32 +3813,32 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I73" s="4">
-        <v>496</v>
+        <v>192</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="J73" s="4">
-        <v>9136</v>
+        <v>8908</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4" t="s">
@@ -3864,32 +3850,32 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J74" s="4">
-        <v>8908</v>
+        <v>180</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
@@ -3899,120 +3885,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4">
-        <v>2004</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J76" s="4">
-        <v>8418</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J77" s="4">
-        <v>8437</v>
-      </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
-    <sortCondition ref="H2:H77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M74">
+    <sortCondition ref="H2:H74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4020,6 +3895,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BA9BB7-F9C5-7A45-A95D-5493347C1271}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="4">
+        <v>6378</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
